--- a/biology/Botanique/Merise/Merise.xlsx
+++ b/biology/Botanique/Merise/Merise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La merise est le fruit du merisier (en latin Prunus avium). Plus petit qu'une cerise, ce fruit charnu, rouge foncé ou noir, a une chair ferme et très savoureuse mais peu sucrée. C'est la cerise que l'on dit « douce ».
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,7 +579,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le merisier pousse à l'état sauvage, dans les forêts et les bois.
 </t>
@@ -594,7 +612,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les merises sont utilisées pour élaborer le kirsch ainsi qu'un apéritif appelé guignolet.
 Comme coulis pour les gâteaux, la cerise-à-grappe ou merise offre une saveur très agréable et subtile. Vu qu'il est assez difficile de dénoyauter des fruits si petits, il est préférable de tout faire cuire puis de filtrer à l'aide d'un linge propre par torsion (essorage).
